--- a/K9HZ_LPF_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_20W_LPF-Filter_Board_BOM_V1.00_09-22-24.xlsx
+++ b/K9HZ_LPF_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_20W_LPF-Filter_Board_BOM_V1.00_09-22-24.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\K9HZ_LPF_Module\K9HZ_LPF_V1.00_BOMs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\K9HZ\K9HZ_LPF_Module\K9HZ_LPF_V1.00_BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237173BA-F220-4300-9722-F513A74987BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62BC4E4-3382-4CEF-AB1E-2C2F82FD5139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T41-WJS-LPF-filter-20W" sheetId="1" r:id="rId1"/>
-    <sheet name="20W Inductor Calcs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="172">
   <si>
     <t>Qty</t>
   </si>
@@ -525,78 +524,6 @@
     <t>80 = Kemet</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Inductance</t>
-  </si>
-  <si>
-    <t>Designator</t>
-  </si>
-  <si>
-    <t>Freq Low</t>
-  </si>
-  <si>
-    <t>Freq Hi</t>
-  </si>
-  <si>
-    <t>T68-0</t>
-  </si>
-  <si>
-    <t>T50-1</t>
-  </si>
-  <si>
-    <t>T50-2</t>
-  </si>
-  <si>
-    <t>T50-6</t>
-  </si>
-  <si>
-    <t>T50-17</t>
-  </si>
-  <si>
-    <t>Core</t>
-  </si>
-  <si>
-    <t>Turns</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>Calc</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>Wire</t>
-  </si>
-  <si>
-    <t>Total Wire</t>
-  </si>
-  <si>
-    <t>uH</t>
-  </si>
-  <si>
-    <t>Selected</t>
-  </si>
-  <si>
-    <t>Delta</t>
-  </si>
-  <si>
-    <t>In</t>
-  </si>
-  <si>
-    <t>Wire in #26</t>
-  </si>
-  <si>
-    <t>Ft</t>
-  </si>
-  <si>
     <t>2pf+12pf below stacked</t>
   </si>
   <si>
@@ -606,13 +533,7 @@
     <t>TadyaElectronics</t>
   </si>
   <si>
-    <t xml:space="preserve">NOTE: These Calculations Are Notional.  </t>
-  </si>
-  <si>
     <t>We have NOT prototyped the 20W version of the LPF here because the 100W version was</t>
-  </si>
-  <si>
-    <t>developed  first and can handle the 20W case as well.  If you build this 20W version and have</t>
   </si>
   <si>
     <t>better results for winding 20W coils, please share those so that everyone can benefit.</t>
@@ -635,13 +556,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -735,13 +653,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="24"/>
       <color rgb="FFFF0000"/>
@@ -750,7 +661,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -765,44 +676,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -811,7 +695,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -890,86 +774,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1281,7 +1096,7 @@
   <dimension ref="A1:ALO208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1310,10 +1125,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>4</v>
@@ -1323,18 +1138,18 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="59"/>
-      <c r="B2" s="57" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="57" t="s">
-        <v>197</v>
+      <c r="C2" s="34" t="s">
+        <v>171</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="35" t="s">
         <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1347,7 +1162,7 @@
       <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="35" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1361,8 +1176,8 @@
       <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="57" t="s">
-        <v>196</v>
+      <c r="D4" s="34" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2137,25 +1952,25 @@
     <row r="63" spans="1:8" ht="31" x14ac:dyDescent="0.7">
       <c r="A63" s="10"/>
       <c r="B63" s="11"/>
-      <c r="C63" s="55" t="s">
-        <v>194</v>
+      <c r="C63" s="32" t="s">
+        <v>168</v>
       </c>
       <c r="D63" s="5"/>
       <c r="F63" s="11"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C64" s="56" t="s">
-        <v>191</v>
+      <c r="C64" s="33" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C65" s="56" t="s">
-        <v>195</v>
+      <c r="C65" s="33" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C66" s="56" t="s">
-        <v>193</v>
+      <c r="C66" s="33" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
@@ -42586,1457 +42401,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="17" orientation="landscape" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U29"/>
-  <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:C29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="8.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" style="4" customWidth="1"/>
-    <col min="6" max="10" width="9.1796875" customWidth="1"/>
-    <col min="11" max="11" width="1.453125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="8.54296875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="9.1796875" customWidth="1"/>
-    <col min="18" max="18" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K1" s="32"/>
-      <c r="L1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="33">
-        <v>0.75</v>
-      </c>
-      <c r="G2" s="33">
-        <v>10</v>
-      </c>
-      <c r="H2" s="33">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="I2" s="33">
-        <v>4</v>
-      </c>
-      <c r="J2" s="33">
-        <v>1.8</v>
-      </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0.17</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="34">
-        <v>50</v>
-      </c>
-      <c r="E3" s="35">
-        <v>54</v>
-      </c>
-      <c r="F3" s="36">
-        <v>15.055453054181619</v>
-      </c>
-      <c r="G3" s="36">
-        <v>4.1231056256176606</v>
-      </c>
-      <c r="H3" s="36">
-        <v>5.8901508937395146</v>
-      </c>
-      <c r="I3" s="36">
-        <v>6.5192024052026492</v>
-      </c>
-      <c r="J3" s="36">
-        <v>9.7182531580755001</v>
-      </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="M3" s="4">
-        <v>10</v>
-      </c>
-      <c r="N3" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0.17</v>
-      </c>
-      <c r="P3" s="39">
-        <v>0.18</v>
-      </c>
-      <c r="Q3" s="40">
-        <v>5.5555555555555455E-2</v>
-      </c>
-      <c r="R3" s="4">
-        <v>9</v>
-      </c>
-      <c r="S3" s="41">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.188</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="34">
-        <v>50</v>
-      </c>
-      <c r="E4" s="35">
-        <v>54</v>
-      </c>
-      <c r="F4" s="36">
-        <v>15.832456116050556</v>
-      </c>
-      <c r="G4" s="36">
-        <v>4.3358966777357599</v>
-      </c>
-      <c r="H4" s="36">
-        <v>6.1941381110510854</v>
-      </c>
-      <c r="I4" s="36">
-        <v>6.8556546004010439</v>
-      </c>
-      <c r="J4" s="36">
-        <v>10.219806477837261</v>
-      </c>
-      <c r="K4" s="37"/>
-      <c r="L4" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="M4" s="4">
-        <v>10</v>
-      </c>
-      <c r="N4" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="O4" s="4">
-        <v>0.188</v>
-      </c>
-      <c r="P4" s="39">
-        <v>0.18</v>
-      </c>
-      <c r="Q4" s="40">
-        <v>-4.4444444444444488E-2</v>
-      </c>
-      <c r="R4" s="4">
-        <v>9</v>
-      </c>
-      <c r="S4" s="41">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="34">
-        <v>28</v>
-      </c>
-      <c r="E5" s="35">
-        <v>29.7</v>
-      </c>
-      <c r="F5" s="42">
-        <v>20.165977949672232</v>
-      </c>
-      <c r="G5" s="36">
-        <v>5.5226805085936306</v>
-      </c>
-      <c r="H5" s="36">
-        <v>7.8895435837051862</v>
-      </c>
-      <c r="I5" s="36">
-        <v>8.7321245982864895</v>
-      </c>
-      <c r="J5" s="36">
-        <v>13.017082793177757</v>
-      </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="M5" s="4">
-        <v>9</v>
-      </c>
-      <c r="N5" s="43">
-        <v>4</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="P5" s="39">
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="Q5" s="40">
-        <v>5.8641975308642028E-2</v>
-      </c>
-      <c r="R5" s="4">
-        <v>8</v>
-      </c>
-      <c r="S5" s="41">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="34">
-        <v>28</v>
-      </c>
-      <c r="E6" s="35">
-        <v>29.7</v>
-      </c>
-      <c r="F6" s="42">
-        <v>21.134489978863144</v>
-      </c>
-      <c r="G6" s="36">
-        <v>5.7879184513951127</v>
-      </c>
-      <c r="H6" s="36">
-        <v>8.268454930564447</v>
-      </c>
-      <c r="I6" s="36">
-        <v>9.1515026088615627</v>
-      </c>
-      <c r="J6" s="36">
-        <v>13.642254619787417</v>
-      </c>
-      <c r="K6" s="37"/>
-      <c r="L6" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="M6" s="4">
-        <v>9</v>
-      </c>
-      <c r="N6" s="43">
-        <v>4</v>
-      </c>
-      <c r="O6" s="4">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="P6" s="39">
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="Q6" s="40">
-        <v>-3.3950617283950643E-2</v>
-      </c>
-      <c r="R6" s="4">
-        <v>8</v>
-      </c>
-      <c r="S6" s="41">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="34">
-        <v>24.89</v>
-      </c>
-      <c r="E7" s="35">
-        <v>24.99</v>
-      </c>
-      <c r="F7" s="42">
-        <v>21.197484127446195</v>
-      </c>
-      <c r="G7" s="36">
-        <v>5.805170109479997</v>
-      </c>
-      <c r="H7" s="36">
-        <v>8.293100156399996</v>
-      </c>
-      <c r="I7" s="36">
-        <v>9.1787798753429097</v>
-      </c>
-      <c r="J7" s="36">
-        <v>13.682917167849194</v>
-      </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="M7" s="4">
-        <v>9</v>
-      </c>
-      <c r="N7" s="43">
-        <v>4</v>
-      </c>
-      <c r="O7" s="4">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="P7" s="39">
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="Q7" s="40">
-        <v>-4.0123456790123489E-2</v>
-      </c>
-      <c r="R7" s="4">
-        <v>8</v>
-      </c>
-      <c r="S7" s="41">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
-        <v>1</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="34">
-        <v>24.89</v>
-      </c>
-      <c r="E8" s="35">
-        <v>24.99</v>
-      </c>
-      <c r="F8" s="42">
-        <v>21.354156504062622</v>
-      </c>
-      <c r="G8" s="36">
-        <v>5.8480766068853782</v>
-      </c>
-      <c r="H8" s="36">
-        <v>8.3543951526933977</v>
-      </c>
-      <c r="I8" s="36">
-        <v>9.2466210044534645</v>
-      </c>
-      <c r="J8" s="36">
-        <v>13.784048752090222</v>
-      </c>
-      <c r="K8" s="37"/>
-      <c r="L8" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="M8" s="4">
-        <v>9</v>
-      </c>
-      <c r="N8" s="43">
-        <v>4</v>
-      </c>
-      <c r="O8" s="4">
-        <v>0.34200000000000003</v>
-      </c>
-      <c r="P8" s="39">
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="Q8" s="40">
-        <v>-5.5555555555555601E-2</v>
-      </c>
-      <c r="R8" s="4">
-        <v>8</v>
-      </c>
-      <c r="S8" s="41">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D9" s="34">
-        <v>21</v>
-      </c>
-      <c r="E9" s="35">
-        <v>21.45</v>
-      </c>
-      <c r="F9" s="42">
-        <v>23.266571155486865</v>
-      </c>
-      <c r="G9" s="36">
-        <v>6.3718129288295966</v>
-      </c>
-      <c r="H9" s="36">
-        <v>9.1025898983279951</v>
-      </c>
-      <c r="I9" s="36">
-        <v>10.074720839804943</v>
-      </c>
-      <c r="J9" s="36">
-        <v>15.018507101425079</v>
-      </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="M9" s="4">
-        <v>10</v>
-      </c>
-      <c r="N9" s="43">
-        <v>4</v>
-      </c>
-      <c r="O9" s="4">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="P9" s="39">
-        <v>0.4</v>
-      </c>
-      <c r="Q9" s="40">
-        <v>-1.5000000000000013E-2</v>
-      </c>
-      <c r="R9" s="4">
-        <v>9</v>
-      </c>
-      <c r="S9" s="41">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
-        <v>2</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="34">
-        <v>21</v>
-      </c>
-      <c r="E10" s="35">
-        <v>21.45</v>
-      </c>
-      <c r="F10" s="42">
-        <v>24.413111231467404</v>
-      </c>
-      <c r="G10" s="36">
-        <v>6.6858058601787116</v>
-      </c>
-      <c r="H10" s="36">
-        <v>9.5511512288267308</v>
-      </c>
-      <c r="I10" s="36">
-        <v>10.571187255932987</v>
-      </c>
-      <c r="J10" s="36">
-        <v>15.758595538097083</v>
-      </c>
-      <c r="K10" s="37"/>
-      <c r="L10" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="M10" s="4">
-        <v>11</v>
-      </c>
-      <c r="N10" s="43">
-        <v>4</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="P10" s="39">
-        <v>0.48399999999999999</v>
-      </c>
-      <c r="Q10" s="40">
-        <v>7.6446280991735491E-2</v>
-      </c>
-      <c r="R10" s="4">
-        <v>10</v>
-      </c>
-      <c r="S10" s="41">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
-        <v>1</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0.47099999999999997</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="34">
-        <v>18.068000000000001</v>
-      </c>
-      <c r="E11" s="35">
-        <v>18.167999999999999</v>
-      </c>
-      <c r="F11" s="42">
-        <v>25.059928172283335</v>
-      </c>
-      <c r="G11" s="36">
-        <v>6.8629439747093963</v>
-      </c>
-      <c r="H11" s="36">
-        <v>9.8042056781562792</v>
-      </c>
-      <c r="I11" s="36">
-        <v>10.851267207105353</v>
-      </c>
-      <c r="J11" s="36">
-        <v>16.176114078067904</v>
-      </c>
-      <c r="K11" s="37"/>
-      <c r="L11" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="M11" s="4">
-        <v>11</v>
-      </c>
-      <c r="N11" s="43">
-        <v>4</v>
-      </c>
-      <c r="O11" s="4">
-        <v>0.47099999999999997</v>
-      </c>
-      <c r="P11" s="39">
-        <v>0.48399999999999999</v>
-      </c>
-      <c r="Q11" s="40">
-        <v>2.685950413223143E-2</v>
-      </c>
-      <c r="R11" s="4">
-        <v>10</v>
-      </c>
-      <c r="S11" s="41">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
-        <v>2</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" s="34">
-        <v>18.068000000000001</v>
-      </c>
-      <c r="E12" s="35">
-        <v>18.167999999999999</v>
-      </c>
-      <c r="F12" s="42">
-        <v>26.305892875931811</v>
-      </c>
-      <c r="G12" s="36">
-        <v>7.2041654617311499</v>
-      </c>
-      <c r="H12" s="36">
-        <v>10.291664945330215</v>
-      </c>
-      <c r="I12" s="36">
-        <v>11.390785749894517</v>
-      </c>
-      <c r="J12" s="36">
-        <v>16.980380835933371</v>
-      </c>
-      <c r="K12" s="37"/>
-      <c r="L12" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="M12" s="4">
-        <v>11</v>
-      </c>
-      <c r="N12" s="43">
-        <v>4</v>
-      </c>
-      <c r="O12" s="4">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="P12" s="39">
-        <v>0.48399999999999999</v>
-      </c>
-      <c r="Q12" s="40">
-        <v>-7.2314049586776924E-2</v>
-      </c>
-      <c r="R12" s="4">
-        <v>10</v>
-      </c>
-      <c r="S12" s="41">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
-        <v>1</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0.60799999999999998</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="34">
-        <v>14</v>
-      </c>
-      <c r="E13" s="35">
-        <v>14.35</v>
-      </c>
-      <c r="F13" s="42">
-        <v>28.472208672083497</v>
-      </c>
-      <c r="G13" s="36">
-        <v>7.7974354758471707</v>
-      </c>
-      <c r="H13" s="36">
-        <v>11.13919353692453</v>
-      </c>
-      <c r="I13" s="36">
-        <v>12.328828005937952</v>
-      </c>
-      <c r="J13" s="36">
-        <v>18.378731669453629</v>
-      </c>
-      <c r="K13" s="37"/>
-      <c r="L13" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="M13" s="4">
-        <v>12</v>
-      </c>
-      <c r="N13" s="43">
-        <v>4</v>
-      </c>
-      <c r="O13" s="4">
-        <v>0.60799999999999998</v>
-      </c>
-      <c r="P13" s="39">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="Q13" s="40">
-        <v>-5.5555555555555608E-2</v>
-      </c>
-      <c r="R13" s="4">
-        <v>10</v>
-      </c>
-      <c r="S13" s="41">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
-        <v>2</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0.67</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" s="34">
-        <v>14</v>
-      </c>
-      <c r="E14" s="35">
-        <v>14.35</v>
-      </c>
-      <c r="F14" s="42">
-        <v>29.888682361946525</v>
-      </c>
-      <c r="G14" s="36">
-        <v>8.1853527718724504</v>
-      </c>
-      <c r="H14" s="36">
-        <v>11.693361102674929</v>
-      </c>
-      <c r="I14" s="36">
-        <v>12.942179105544785</v>
-      </c>
-      <c r="J14" s="36">
-        <v>19.293061504650375</v>
-      </c>
-      <c r="K14" s="37"/>
-      <c r="L14" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="M14" s="4">
-        <v>13</v>
-      </c>
-      <c r="N14" s="43">
-        <v>4</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0.67</v>
-      </c>
-      <c r="P14" s="39">
-        <v>0.67600000000000005</v>
-      </c>
-      <c r="Q14" s="40">
-        <v>8.8757396449704214E-3</v>
-      </c>
-      <c r="R14" s="4">
-        <v>11</v>
-      </c>
-      <c r="S14" s="41">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
-        <v>1</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0.84299999999999997</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" s="34">
-        <v>10.1</v>
-      </c>
-      <c r="E15" s="35">
-        <v>10.15</v>
-      </c>
-      <c r="F15" s="42">
-        <v>33.526109228480422</v>
-      </c>
-      <c r="G15" s="36">
-        <v>9.1815031449104243</v>
-      </c>
-      <c r="H15" s="36">
-        <v>13.116433064157748</v>
-      </c>
-      <c r="I15" s="36">
-        <v>14.517231140957975</v>
-      </c>
-      <c r="J15" s="36">
-        <v>21.641010450839243</v>
-      </c>
-      <c r="K15" s="37"/>
-      <c r="L15" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="M15" s="4">
-        <v>14</v>
-      </c>
-      <c r="N15" s="43">
-        <v>4</v>
-      </c>
-      <c r="O15" s="4">
-        <v>0.84299999999999997</v>
-      </c>
-      <c r="P15" s="39">
-        <v>0.78400000000000003</v>
-      </c>
-      <c r="Q15" s="40">
-        <v>-7.5255102040816244E-2</v>
-      </c>
-      <c r="R15" s="4">
-        <v>12</v>
-      </c>
-      <c r="S15" s="41">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
-        <v>2</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" s="34">
-        <v>10.1</v>
-      </c>
-      <c r="E16" s="35">
-        <v>10.15</v>
-      </c>
-      <c r="F16" s="42">
-        <v>35.175749222061114</v>
-      </c>
-      <c r="G16" s="36">
-        <v>9.633275663033837</v>
-      </c>
-      <c r="H16" s="36">
-        <v>13.761822375762623</v>
-      </c>
-      <c r="I16" s="36">
-        <v>15.231546211727817</v>
-      </c>
-      <c r="J16" s="36">
-        <v>22.705848487901868</v>
-      </c>
-      <c r="K16" s="37"/>
-      <c r="L16" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="M16" s="4">
-        <v>15</v>
-      </c>
-      <c r="N16" s="43">
-        <v>4</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="P16" s="39">
-        <v>0.9</v>
-      </c>
-      <c r="Q16" s="40">
-        <v>-3.1111111111111138E-2</v>
-      </c>
-      <c r="R16" s="4">
-        <v>12</v>
-      </c>
-      <c r="S16" s="41">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
-        <v>1</v>
-      </c>
-      <c r="B17" s="4">
-        <v>1.22</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D17" s="34">
-        <v>7</v>
-      </c>
-      <c r="E17" s="35">
-        <v>7.3</v>
-      </c>
-      <c r="F17" s="42">
-        <v>40.331955899344464</v>
-      </c>
-      <c r="G17" s="36">
-        <v>11.045361017187261</v>
-      </c>
-      <c r="H17" s="36">
-        <v>15.779087167410372</v>
-      </c>
-      <c r="I17" s="36">
-        <v>17.464249196572979</v>
-      </c>
-      <c r="J17" s="36">
-        <v>26.034165586355513</v>
-      </c>
-      <c r="K17" s="37"/>
-      <c r="L17" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="M17" s="4">
-        <v>17</v>
-      </c>
-      <c r="N17" s="43">
-        <v>4</v>
-      </c>
-      <c r="O17" s="4">
-        <v>1.22</v>
-      </c>
-      <c r="P17" s="39">
-        <v>1.1559999999999999</v>
-      </c>
-      <c r="Q17" s="40">
-        <v>-5.5363321799308009E-2</v>
-      </c>
-      <c r="R17" s="4">
-        <v>14</v>
-      </c>
-      <c r="S17" s="41">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
-        <v>2</v>
-      </c>
-      <c r="B18" s="4">
-        <v>1.34</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D18" s="34">
-        <v>7</v>
-      </c>
-      <c r="E18" s="35">
-        <v>7.3</v>
-      </c>
-      <c r="F18" s="42">
-        <v>42.268979957726287</v>
-      </c>
-      <c r="G18" s="36">
-        <v>11.575836902790225</v>
-      </c>
-      <c r="H18" s="36">
-        <v>16.536909861128894</v>
-      </c>
-      <c r="I18" s="36">
-        <v>18.303005217723125</v>
-      </c>
-      <c r="J18" s="36">
-        <v>27.284509239574835</v>
-      </c>
-      <c r="K18" s="37"/>
-      <c r="L18" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="M18" s="4">
-        <v>18</v>
-      </c>
-      <c r="N18" s="43">
-        <v>4</v>
-      </c>
-      <c r="O18" s="4">
-        <v>1.34</v>
-      </c>
-      <c r="P18" s="39">
-        <v>1.296</v>
-      </c>
-      <c r="Q18" s="40">
-        <v>-3.3950617283950643E-2</v>
-      </c>
-      <c r="R18" s="4">
-        <v>14</v>
-      </c>
-      <c r="S18" s="41">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
-        <v>1</v>
-      </c>
-      <c r="B19" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D19" s="34">
-        <v>5.3</v>
-      </c>
-      <c r="E19" s="35">
-        <v>5.5</v>
-      </c>
-      <c r="F19" s="42">
-        <v>46.188021535170066</v>
-      </c>
-      <c r="G19" s="36">
-        <v>12.649110640673518</v>
-      </c>
-      <c r="H19" s="36">
-        <v>18.070158058105026</v>
-      </c>
-      <c r="I19" s="36">
-        <v>20</v>
-      </c>
-      <c r="J19" s="36">
-        <v>29.814239699997195</v>
-      </c>
-      <c r="K19" s="37"/>
-      <c r="L19" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="M19" s="4">
-        <v>18</v>
-      </c>
-      <c r="N19" s="4">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="O19" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="P19" s="39">
-        <v>1.5876000000000001</v>
-      </c>
-      <c r="Q19" s="40">
-        <v>-7.810531620055408E-3</v>
-      </c>
-      <c r="R19" s="4">
-        <v>14</v>
-      </c>
-      <c r="S19" s="41">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
-        <v>2</v>
-      </c>
-      <c r="B20" s="4">
-        <v>1.76</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D20" s="34">
-        <v>5.3</v>
-      </c>
-      <c r="E20" s="35">
-        <v>5.5</v>
-      </c>
-      <c r="F20" s="42">
-        <v>48.442405665559868</v>
-      </c>
-      <c r="G20" s="36">
-        <v>13.266499161421599</v>
-      </c>
-      <c r="H20" s="36">
-        <v>18.952141659173712</v>
-      </c>
-      <c r="I20" s="36">
-        <v>20.976176963403031</v>
-      </c>
-      <c r="J20" s="36">
-        <v>31.269438398822864</v>
-      </c>
-      <c r="K20" s="37"/>
-      <c r="L20" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="M20" s="4">
-        <v>19</v>
-      </c>
-      <c r="N20" s="4">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="O20" s="4">
-        <v>1.76</v>
-      </c>
-      <c r="P20" s="39">
-        <v>1.7689000000000001</v>
-      </c>
-      <c r="Q20" s="40">
-        <v>5.0313754310589232E-3</v>
-      </c>
-      <c r="R20" s="4">
-        <v>15</v>
-      </c>
-      <c r="S20" s="41">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A21" s="4">
-        <v>1</v>
-      </c>
-      <c r="B21" s="4">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D21" s="34">
-        <v>3.5</v>
-      </c>
-      <c r="E21" s="35">
-        <v>4</v>
-      </c>
-      <c r="F21" s="36">
-        <v>56.920997883030829</v>
-      </c>
-      <c r="G21" s="36">
-        <v>15.588457268119896</v>
-      </c>
-      <c r="H21" s="36">
-        <v>22.269224668742709</v>
-      </c>
-      <c r="I21" s="36">
-        <v>24.647515087732476</v>
-      </c>
-      <c r="J21" s="36">
-        <v>36.742346141747674</v>
-      </c>
-      <c r="K21" s="37"/>
-      <c r="L21" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="M21" s="4">
-        <v>22</v>
-      </c>
-      <c r="N21" s="4">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="O21" s="4">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="P21" s="39">
-        <v>2.3716000000000004</v>
-      </c>
-      <c r="Q21" s="40">
-        <v>-2.4624725923427127E-2</v>
-      </c>
-      <c r="R21" s="4">
-        <v>17</v>
-      </c>
-      <c r="S21" s="41">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A22" s="4">
-        <v>2</v>
-      </c>
-      <c r="B22" s="4">
-        <v>2.68</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D22" s="34">
-        <v>3.5</v>
-      </c>
-      <c r="E22" s="35">
-        <v>4</v>
-      </c>
-      <c r="F22" s="36">
-        <v>59.777364723893051</v>
-      </c>
-      <c r="G22" s="36">
-        <v>16.370705543744901</v>
-      </c>
-      <c r="H22" s="36">
-        <v>23.386722205349859</v>
-      </c>
-      <c r="I22" s="36">
-        <v>25.88435821108957</v>
-      </c>
-      <c r="J22" s="36">
-        <v>38.586123009300749</v>
-      </c>
-      <c r="K22" s="37"/>
-      <c r="L22" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="M22" s="4">
-        <v>23</v>
-      </c>
-      <c r="N22" s="4">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="O22" s="4">
-        <v>2.68</v>
-      </c>
-      <c r="P22" s="39">
-        <v>2.5921000000000003</v>
-      </c>
-      <c r="Q22" s="40">
-        <v>-3.3910728752748684E-2</v>
-      </c>
-      <c r="R22" s="4">
-        <v>18</v>
-      </c>
-      <c r="S22" s="41">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A23" s="4">
-        <v>1</v>
-      </c>
-      <c r="B23" s="4">
-        <v>4.7300000000000004</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D23" s="34">
-        <v>1.8</v>
-      </c>
-      <c r="E23" s="35">
-        <v>2</v>
-      </c>
-      <c r="F23" s="36">
-        <v>79.414524280301947</v>
-      </c>
-      <c r="G23" s="36">
-        <v>21.748563170931547</v>
-      </c>
-      <c r="H23" s="36">
-        <v>31.069375958473636</v>
-      </c>
-      <c r="I23" s="36">
-        <v>34.387497728098801</v>
-      </c>
-      <c r="J23" s="36">
-        <v>51.26185499743233</v>
-      </c>
-      <c r="K23" s="37"/>
-      <c r="L23" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="M23" s="4">
-        <v>31</v>
-      </c>
-      <c r="N23" s="4">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="O23" s="4">
-        <v>4.7300000000000004</v>
-      </c>
-      <c r="P23" s="39">
-        <v>4.7089000000000008</v>
-      </c>
-      <c r="Q23" s="40">
-        <v>-4.4808766378559052E-3</v>
-      </c>
-      <c r="R23" s="4">
-        <v>23</v>
-      </c>
-      <c r="S23" s="41">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A24" s="45">
-        <v>2</v>
-      </c>
-      <c r="B24" s="45">
-        <v>5.21</v>
-      </c>
-      <c r="C24" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="D24" s="46">
-        <v>1.8</v>
-      </c>
-      <c r="E24" s="47">
-        <v>2</v>
-      </c>
-      <c r="F24" s="48">
-        <v>83.346665600170638</v>
-      </c>
-      <c r="G24" s="48">
-        <v>22.825424421026653</v>
-      </c>
-      <c r="H24" s="48">
-        <v>32.607749172895218</v>
-      </c>
-      <c r="I24" s="48">
-        <v>36.090164865237178</v>
-      </c>
-      <c r="J24" s="48">
-        <v>53.800041305229911</v>
-      </c>
-      <c r="K24" s="50"/>
-      <c r="L24" s="49" t="s">
-        <v>170</v>
-      </c>
-      <c r="M24" s="45">
-        <v>32</v>
-      </c>
-      <c r="N24" s="45">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="O24" s="45">
-        <v>5.21</v>
-      </c>
-      <c r="P24" s="51">
-        <v>5.0176000000000007</v>
-      </c>
-      <c r="Q24" s="52">
-        <v>-3.8345025510203926E-2</v>
-      </c>
-      <c r="R24" s="45">
-        <v>24</v>
-      </c>
-      <c r="S24" s="53">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-    </row>
-    <row r="26" spans="1:19" ht="31" x14ac:dyDescent="0.7">
-      <c r="A26" s="1">
-        <v>33</v>
-      </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="55" t="s">
-        <v>190</v>
-      </c>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="C27" s="56" t="s">
-        <v>191</v>
-      </c>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="C28" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="41">
-        <v>34.333333333333336</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="C29" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>